--- a/Schedule_ToolExtractFile.xlsx
+++ b/Schedule_ToolExtractFile.xlsx
@@ -855,41 +855,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -900,6 +870,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,22 +900,40 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1324,7 +1324,7 @@
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1377,8 +1377,8 @@
       <c r="AO1" s="23"/>
     </row>
     <row r="2" spans="1:41" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="5"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -1414,8 +1414,8 @@
       <c r="AO2" s="23"/>
     </row>
     <row r="3" spans="1:41" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1462,108 +1462,108 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="55" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="68"/>
-      <c r="L5" s="72" t="s">
+      <c r="K5" s="54"/>
+      <c r="L5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="68"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="54"/>
     </row>
     <row r="6" spans="1:41">
-      <c r="B6" s="51"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="62"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="14">
         <v>43920</v>
       </c>
@@ -1662,14 +1662,14 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="15.75" thickBot="1">
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="63"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="12" t="str">
         <f t="shared" ref="J7:K7" si="0">CHOOSE(WEEKDAY(J6),"日","月","火","水","木","金","土")</f>
         <v>月</v>
@@ -1811,42 +1811,42 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="65"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="65"/>
-      <c r="AL8" s="65"/>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="66"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59"/>
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="59"/>
+      <c r="AO8" s="60"/>
     </row>
     <row r="9" spans="1:41" ht="26.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="61" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -1905,7 +1905,7 @@
     </row>
     <row r="10" spans="1:41" ht="26.25" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="47"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="40" t="s">
         <v>10</v>
       </c>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="11" spans="1:41" ht="26.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="47"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="40" t="s">
         <v>11</v>
       </c>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="12" spans="1:41" ht="26.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="47"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="40" t="s">
         <v>13</v>
       </c>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="13" spans="1:41" ht="26.25" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="47"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="14" spans="1:41" ht="26.25" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="48"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="30" t="s">
         <v>18</v>
       </c>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="15" spans="1:41" ht="26.25" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="61" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="39" t="s">
@@ -2203,7 +2203,7 @@
         <v>43928</v>
       </c>
       <c r="F15" s="32">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="G15" s="32">
         <v>43928</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="16" spans="1:41" ht="26.25" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="47"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="40" t="s">
         <v>21</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>43929</v>
       </c>
       <c r="F16" s="34">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="17" spans="1:41" ht="26.25" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="48"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="30" t="s">
         <v>23</v>
       </c>
@@ -2304,10 +2304,10 @@
         <v>16</v>
       </c>
       <c r="E17" s="31">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="F17" s="31">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
@@ -2347,13 +2347,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="L4:AO4"/>
-    <mergeCell ref="L5:AO5"/>
-    <mergeCell ref="I5:I7"/>
     <mergeCell ref="L8:AO8"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J8:K8"/>
@@ -2363,6 +2356,13 @@
     <mergeCell ref="B5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="H5:H7"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="L4:AO4"/>
+    <mergeCell ref="L5:AO5"/>
+    <mergeCell ref="I5:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J9:U12 J13:L13 N13:U13 X9:AO17 J14:U17">

--- a/Schedule_ToolExtractFile.xlsx
+++ b/Schedule_ToolExtractFile.xlsx
@@ -855,33 +855,78 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -889,51 +934,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1324,7 +1324,7 @@
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1377,8 +1377,8 @@
       <c r="AO1" s="23"/>
     </row>
     <row r="2" spans="1:41" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="5"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -1414,8 +1414,8 @@
       <c r="AO2" s="23"/>
     </row>
     <row r="3" spans="1:41" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1496,74 +1496,74 @@
       <c r="AO4" s="51"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="70" t="s">
+      <c r="C5" s="56"/>
+      <c r="D5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="52" t="s">
+      <c r="K5" s="50"/>
+      <c r="L5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="54"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="50"/>
     </row>
     <row r="6" spans="1:41">
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="14">
         <v>43920</v>
       </c>
@@ -1662,14 +1662,14 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="15.75" thickBot="1">
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="57"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="12" t="str">
         <f t="shared" ref="J7:K7" si="0">CHOOSE(WEEKDAY(J6),"日","月","火","水","木","金","土")</f>
         <v>月</v>
@@ -1811,42 +1811,42 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="59"/>
-      <c r="AK8" s="59"/>
-      <c r="AL8" s="59"/>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="59"/>
-      <c r="AO8" s="60"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="48"/>
     </row>
     <row r="9" spans="1:41" ht="26.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="52" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -1905,7 +1905,7 @@
     </row>
     <row r="10" spans="1:41" ht="26.25" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="62"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="40" t="s">
         <v>10</v>
       </c>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="11" spans="1:41" ht="26.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="62"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="40" t="s">
         <v>11</v>
       </c>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="12" spans="1:41" ht="26.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="62"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="40" t="s">
         <v>13</v>
       </c>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="13" spans="1:41" ht="26.25" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="62"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="14" spans="1:41" ht="26.25" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="63"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="30" t="s">
         <v>18</v>
       </c>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="15" spans="1:41" ht="26.25" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="52" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="39" t="s">
@@ -2209,7 +2209,9 @@
         <v>43928</v>
       </c>
       <c r="H15" s="32"/>
-      <c r="I15" s="41"/>
+      <c r="I15" s="41">
+        <v>99</v>
+      </c>
       <c r="J15" s="25"/>
       <c r="K15" s="26"/>
       <c r="L15" s="29"/>
@@ -2245,7 +2247,7 @@
     </row>
     <row r="16" spans="1:41" ht="26.25" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="62"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="40" t="s">
         <v>21</v>
       </c>
@@ -2296,7 +2298,7 @@
     </row>
     <row r="17" spans="1:41" ht="26.25" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="63"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="30" t="s">
         <v>23</v>
       </c>
@@ -2347,6 +2349,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="L4:AO4"/>
+    <mergeCell ref="L5:AO5"/>
+    <mergeCell ref="I5:I7"/>
     <mergeCell ref="L8:AO8"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J8:K8"/>
@@ -2356,13 +2365,6 @@
     <mergeCell ref="B5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="H5:H7"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="L4:AO4"/>
-    <mergeCell ref="L5:AO5"/>
-    <mergeCell ref="I5:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J9:U12 J13:L13 N13:U13 X9:AO17 J14:U17">

--- a/Schedule_ToolExtractFile.xlsx
+++ b/Schedule_ToolExtractFile.xlsx
@@ -855,59 +855,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -918,15 +870,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,6 +889,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1324,7 +1324,7 @@
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1377,8 +1377,8 @@
       <c r="AO1" s="23"/>
     </row>
     <row r="2" spans="1:41" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="5"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -1414,8 +1414,8 @@
       <c r="AO2" s="23"/>
     </row>
     <row r="3" spans="1:41" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1496,74 +1496,74 @@
       <c r="AO4" s="51"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="61" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="69" t="s">
+      <c r="K5" s="54"/>
+      <c r="L5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="49"/>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="50"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="54"/>
     </row>
     <row r="6" spans="1:41">
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="71"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="14">
         <v>43920</v>
       </c>
@@ -1662,14 +1662,14 @@
       </c>
     </row>
     <row r="7" spans="1:41" ht="15.75" thickBot="1">
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="72"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="12" t="str">
         <f t="shared" ref="J7:K7" si="0">CHOOSE(WEEKDAY(J6),"日","月","火","水","木","金","土")</f>
         <v>月</v>
@@ -1811,42 +1811,42 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="47"/>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="48"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59"/>
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="59"/>
+      <c r="AO8" s="60"/>
     </row>
     <row r="9" spans="1:41" ht="26.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="61" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -1905,7 +1905,7 @@
     </row>
     <row r="10" spans="1:41" ht="26.25" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="53"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="40" t="s">
         <v>10</v>
       </c>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="11" spans="1:41" ht="26.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="53"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="40" t="s">
         <v>11</v>
       </c>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="12" spans="1:41" ht="26.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="53"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="40" t="s">
         <v>13</v>
       </c>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="13" spans="1:41" ht="26.25" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="53"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="14" spans="1:41" ht="26.25" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="54"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="30" t="s">
         <v>18</v>
       </c>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="15" spans="1:41" ht="26.25" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="61" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="39" t="s">
@@ -2208,7 +2208,9 @@
       <c r="G15" s="32">
         <v>43928</v>
       </c>
-      <c r="H15" s="32"/>
+      <c r="H15" s="32">
+        <v>43929</v>
+      </c>
       <c r="I15" s="41">
         <v>99</v>
       </c>
@@ -2247,7 +2249,7 @@
     </row>
     <row r="16" spans="1:41" ht="26.25" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="53"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="40" t="s">
         <v>21</v>
       </c>
@@ -2298,7 +2300,7 @@
     </row>
     <row r="17" spans="1:41" ht="26.25" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="54"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="30" t="s">
         <v>23</v>
       </c>
@@ -2349,13 +2351,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="L4:AO4"/>
-    <mergeCell ref="L5:AO5"/>
-    <mergeCell ref="I5:I7"/>
     <mergeCell ref="L8:AO8"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J8:K8"/>
@@ -2365,6 +2360,13 @@
     <mergeCell ref="B5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="H5:H7"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="L4:AO4"/>
+    <mergeCell ref="L5:AO5"/>
+    <mergeCell ref="I5:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J9:U12 J13:L13 N13:U13 X9:AO17 J14:U17">
